--- a/data/trans_bre/P15A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2130464453460899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.834333510615616</v>
+        <v>1.834333510615615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.04832041828208137</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.234812626951387</v>
+        <v>-2.317034144955473</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.356215856506948</v>
+        <v>-3.24345146497027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.294161786276728</v>
+        <v>-2.273105123136205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5170954062735114</v>
+        <v>0.4239586108450479</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6805617696086685</v>
+        <v>-0.688092582573731</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7856601592403196</v>
+        <v>-0.7554559157207268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7173806575962344</v>
+        <v>-0.7131710194422785</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08856178058971714</v>
+        <v>0.04212388617782654</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.757839855292525</v>
+        <v>2.49532918691252</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.519488469842011</v>
+        <v>2.638741366510547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.034341222097188</v>
+        <v>1.789637686282819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.285009800896518</v>
+        <v>3.393069852943784</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.745353963153214</v>
+        <v>1.598101351671351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.252333297321858</v>
+        <v>1.353370336290978</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.317798556917928</v>
+        <v>1.577059663490261</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6.139786326429475</v>
+        <v>7.803424103970911</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.832057270198262</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.278397150590168</v>
+        <v>-1.278397150590167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5848333864144939</v>
@@ -749,7 +749,7 @@
         <v>1.169360815479719</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4836148780843188</v>
+        <v>-0.4836148780843187</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.419329457289385</v>
+        <v>-4.814501036209806</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.778787893395367</v>
+        <v>-3.643529282418003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4276899708308248</v>
+        <v>-0.1269657957027961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.54362562484748</v>
+        <v>-3.670144758287122</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8994879483561858</v>
+        <v>-0.9163590872290385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9268128379125123</v>
+        <v>-0.9316048709292034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2570761538050813</v>
+        <v>-0.2863379405638385</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.826570851592874</v>
+        <v>-0.8254256690147626</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2787668483572175</v>
+        <v>-0.00171593996118998</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.330756269127127</v>
+        <v>0.5293407055755529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.366201221474051</v>
+        <v>4.384106558320077</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3335635418630216</v>
+        <v>0.2879870372003634</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3065854297924207</v>
+        <v>0.1463796587812683</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3357434389289415</v>
+        <v>0.5385191513269225</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>7.041358246471423</v>
+        <v>6.484866576714331</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3181119005901735</v>
+        <v>0.3105998949452562</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.22072592569917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1808724638462086</v>
+        <v>-0.1808724638462079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4334198540200629</v>
@@ -849,7 +849,7 @@
         <v>1.168689517765125</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.05771909300017533</v>
+        <v>-0.05771909300017512</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.122087678766514</v>
+        <v>-5.058446389155153</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.556731720600677</v>
+        <v>-2.413006563524853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3901071695600717</v>
+        <v>-0.6307625275932809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.612546102407219</v>
+        <v>-2.597291126996467</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8095719854012644</v>
+        <v>-0.8091005251182091</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7703270235896068</v>
+        <v>-0.7684271177911169</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.31355798067327</v>
+        <v>-0.3609899323887542</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6322931272769593</v>
+        <v>-0.6397078748331556</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.59935604032418</v>
+        <v>1.455663780435374</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.401548838823405</v>
+        <v>2.507411132165382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.568800917104789</v>
+        <v>6.11401207357654</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.442756745995455</v>
+        <v>2.139761529797681</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5054706638003013</v>
+        <v>0.4815989012340078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.487109811468563</v>
+        <v>1.662401037177727</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.675728998216387</v>
+        <v>5.077997898047039</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.26257244403345</v>
+        <v>1.020952303859633</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.388864059453388</v>
+        <v>-1.269464529102132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.290787954971429</v>
+        <v>-2.353105045360592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.272365897967706</v>
+        <v>-2.362196570063583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.250755154555302</v>
+        <v>-1.281098803085137</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3640077383465868</v>
+        <v>-0.3585761145835754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6247240715416161</v>
+        <v>-0.6222154033177042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8052852996895935</v>
+        <v>-0.8001684108412198</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4082629909448582</v>
+        <v>-0.4285914234687075</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.088258747155723</v>
+        <v>2.103732204958098</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6631077892844908</v>
+        <v>0.6843758094936736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.00437097518908466</v>
+        <v>0.06738404858934349</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.415483648937224</v>
+        <v>1.539818370107207</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8667784812023088</v>
+        <v>0.852116887206097</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3323144639959228</v>
+        <v>0.3146694245583614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09483401493015386</v>
+        <v>0.1659522245219559</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7924629160072187</v>
+        <v>0.9291638614836835</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.8604287275241707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4898188523097827</v>
+        <v>0.4898188523097834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09451627292818188</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2233701948299485</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.15234945465491</v>
+        <v>0.1523494546549102</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.217451838969086</v>
+        <v>-2.633105501845866</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.487660452043987</v>
+        <v>-1.188030259665917</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.995134993313321</v>
+        <v>-2.839849322983798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.341126050708301</v>
+        <v>-2.769839526030692</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4627492198998584</v>
+        <v>-0.4791682197601542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3940039055299046</v>
+        <v>-0.3651014953695336</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6058183404699213</v>
+        <v>-0.5622676085383373</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4884260903718025</v>
+        <v>-0.5028281797940836</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.530646704982554</v>
+        <v>2.58176098072347</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.591644292578377</v>
+        <v>2.459865423187622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.080680315592951</v>
+        <v>0.9883339159594513</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.657419406344721</v>
+        <v>2.396603062466872</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.170139031117406</v>
+        <v>1.262872514744984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.640260922522142</v>
+        <v>1.542905001860702</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4075661657630587</v>
+        <v>0.3675973975895289</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.374741950795588</v>
+        <v>1.39794271114427</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-2.190894249216134</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.382015709843879</v>
+        <v>1.38201570984388</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.5864477118990754</v>
@@ -1149,7 +1149,7 @@
         <v>-0.4417482363611686</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.307465704947668</v>
+        <v>1.307465704947669</v>
       </c>
     </row>
     <row r="20">
@@ -1160,25 +1160,25 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.048937088258032</v>
+        <v>-6.386400991513487</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.749695440170562</v>
+        <v>-1.766988688931664</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.52199039726577</v>
+        <v>-5.402493777817048</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.511984462162389</v>
+        <v>-2.033763858560686</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7677656909578162</v>
+        <v>-0.7868688541872724</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4240125354019553</v>
+        <v>-0.410677143132987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7061341611624079</v>
+        <v>-0.7209059793202582</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1190,25 +1190,25 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.6080826096834133</v>
+        <v>-0.7829101394482038</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.636887684230431</v>
+        <v>2.622281364726568</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4101977119821709</v>
+        <v>0.4580173452380923</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.7985584402633</v>
+        <v>2.761806094516698</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1623094149016311</v>
+        <v>-0.205454501115685</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.102256222975099</v>
+        <v>2.063501027978351</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1896261425019691</v>
+        <v>0.1891434536254037</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1233,7 +1233,7 @@
         <v>-0.154058687921553</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3300930311419401</v>
+        <v>0.3300930311419398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2557864090823772</v>
@@ -1245,7 +1245,7 @@
         <v>-0.05853368771759401</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1393488262449877</v>
+        <v>0.1393488262449876</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.846001340687816</v>
+        <v>-1.858067222744392</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.935176066692231</v>
+        <v>-0.9822866750023387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.017549857244927</v>
+        <v>-0.9095910990013247</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3830157344799457</v>
+        <v>-0.4849459319169781</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4351703158152754</v>
+        <v>-0.4431570601245106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2866872883917999</v>
+        <v>-0.2943997711972972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3274154792335726</v>
+        <v>-0.2998303957270534</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1418035613193203</v>
+        <v>-0.1791732116071482</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.08651722557527455</v>
+        <v>-0.09368346691615782</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7032017290424023</v>
+        <v>0.6623637591134605</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5758880207270509</v>
+        <v>0.6294190490009202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.05442143458359</v>
+        <v>1.043355529873407</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.03247413814282735</v>
+        <v>-0.02540928829866381</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3030212416239305</v>
+        <v>0.2681640756855715</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2671496782865122</v>
+        <v>0.2861592443439596</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5624603892348368</v>
+        <v>0.5340575198296794</v>
       </c>
     </row>
     <row r="25">
